--- a/defineFiles/常规常量.xlsx
+++ b/defineFiles/常规常量.xlsx
@@ -8,30 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hjl/Projects/NewAdUploadTool/defineFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D853D9-02B6-5F40-B507-96D63302DD7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8EFC3D-E948-4145-9729-01228C8E816C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6560" yWindow="3860" windowWidth="26860" windowHeight="15440" xr2:uid="{FCE03592-A999-2447-A328-3E29A4239458}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{FCE03592-A999-2447-A328-3E29A4239458}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$C$45</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="99">
   <si>
     <t>key</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -41,310 +38,301 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> delayToNextCache </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 广告重试间隔 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tryCacheTimes </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 广告重试次数 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> delayToChangeText </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> native中的title和body内容互换间隔 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bannerRefreshTime </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> banner刷新间隔 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> aolBannerRefreshTime </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  banner刷新间隔 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> interstitialNPV </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 插屏中插入视频的间隔 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> loadVideoMaxTime </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 视频或激励视频加载超时时间(废弃) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> nativeAdsCloseTime </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> native插屏展示后多级可关闭 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> discardBanner </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> banner失效时间 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> discardInterstitial </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 插屏失效时间 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> discardNative </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> native失效时间 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> discardMenu </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> menu失效时间 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> discardVideo </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 视频失效时间 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> discardRewardVideo </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 激励视频失效时间 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> adLoadWaitingTime </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 插屏加载超时时间 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> videoLoadWaitingTime </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 视频类广告加载超时时间 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> loadTimeCD </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 两次加载需要的间隔 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> config001 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 用户多久之后算是老用户 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> nativeTemplateId </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 控制native banner的模板 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> config002 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 控制native menu点击范围(新用户) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> config003 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 控制native menu点击范围(老用户) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> config004 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 控制native 插屏点击范围(新用户) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> config005 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 控制native 插屏点击范围(老用户) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> interstitialCD </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 插屏播放间隔(调用展示插屏的次数)(最好配置为0,间隔交由游戏控制) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> interstitialTimeCD </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 插屏播放时间间隔(最好配置为0,间隔交由游戏控制) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bannerTimeCD </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> banner展示多久之后更换一条 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> nativeMenuTimeCD </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> menu多久展示一次 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> InterstitialCoverTime </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 插屏前的遮罩持续时间 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> config040 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>false</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> prediction重复打点开关 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> config041 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> prediction打点事件名列表,  ";"分割 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> config042 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 插屏前的遮罩跳转广告的时间 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> config043 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 版本更新弹窗配置 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> config044 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 控制是否打unity价格回传的点 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> config045 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 控制ecpm 需要开几次方 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> config046 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 控制ecpm 开方后乘以的倍数 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> config047 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 控制显示弹窗的类型, "1"是显示小弹窗; "2"是显示全屏弹窗; "3"没有年龄选择框,只有确认按钮; "4"没有年龄选择框,两个按钮,文案包括"OK"; "5"没有年龄选择框,两个按钮,文案包括"Accept" </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> config048 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 开启GDPR弹窗, "true"显示弹窗,"false"是不开启弹窗 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> config050 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 服务条款说明地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> config051 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> gdpr隐私说明地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> config052 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 用户价值打点配置,  ";"分割,例"1;5;15"则第1,5,15在同一天价值分别达到1,5,15时打一个点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> shopUrl </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 商店地址 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> config060 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 插屏加载成功是否加载更多广告, "0"不加载更多,"1"加载更多 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> config061 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 激励视频加载成功是否加载更多广告, "0"不加载更多,"1"加载更多 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> nativeRefreshInterval </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> menu 和 ingame 刷新展示N次刷新</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interstitialNPV</t>
+  </si>
+  <si>
+    <t>delayToNextCache</t>
+  </si>
+  <si>
+    <t>广告重试间隔</t>
+  </si>
+  <si>
+    <t>tryCacheTimes</t>
+  </si>
+  <si>
+    <t>广告重试次数</t>
+  </si>
+  <si>
+    <t>delayToChangeText</t>
+  </si>
+  <si>
+    <t>native中的title和body内容互换间隔</t>
+  </si>
+  <si>
+    <t>bannerRefreshTime</t>
+  </si>
+  <si>
+    <t>banner刷新间隔</t>
+  </si>
+  <si>
+    <t>aolBannerRefreshTime</t>
+  </si>
+  <si>
+    <t>插屏中插入视频的间隔</t>
+  </si>
+  <si>
+    <t>loadVideoMaxTime</t>
+  </si>
+  <si>
+    <t>视频或激励视频加载超时时间(废弃)</t>
+  </si>
+  <si>
+    <t>nativeAdsCloseTime</t>
+  </si>
+  <si>
+    <t>native插屏展示后多级可关闭</t>
+  </si>
+  <si>
+    <t>discardBanner</t>
+  </si>
+  <si>
+    <t>banner失效时间</t>
+  </si>
+  <si>
+    <t>discardInterstitial</t>
+  </si>
+  <si>
+    <t>插屏失效时间</t>
+  </si>
+  <si>
+    <t>discardNative</t>
+  </si>
+  <si>
+    <t>native失效时间</t>
+  </si>
+  <si>
+    <t>discardMenu</t>
+  </si>
+  <si>
+    <t>menu失效时间</t>
+  </si>
+  <si>
+    <t>discardVideo</t>
+  </si>
+  <si>
+    <t>视频失效时间</t>
+  </si>
+  <si>
+    <t>discardRewardVideo</t>
+  </si>
+  <si>
+    <t>激励视频失效时间</t>
+  </si>
+  <si>
+    <t>adLoadWaitingTime</t>
+  </si>
+  <si>
+    <t>插屏加载超时时间</t>
+  </si>
+  <si>
+    <t>videoLoadWaitingTime</t>
+  </si>
+  <si>
+    <t>视频类广告加载超时时间</t>
+  </si>
+  <si>
+    <t>loadTimeCD</t>
+  </si>
+  <si>
+    <t>两次加载需要的间隔</t>
+  </si>
+  <si>
+    <t>config001</t>
+  </si>
+  <si>
+    <t>用户多久之后算是老用户</t>
+  </si>
+  <si>
+    <t>nativeTemplateId</t>
+  </si>
+  <si>
+    <t>控制nativebanner的模板</t>
+  </si>
+  <si>
+    <t>config002</t>
+  </si>
+  <si>
+    <t>控制nativemenu点击范围(新用户)</t>
+  </si>
+  <si>
+    <t>config003</t>
+  </si>
+  <si>
+    <t>控制nativemenu点击范围(老用户)</t>
+  </si>
+  <si>
+    <t>config004</t>
+  </si>
+  <si>
+    <t>控制native插屏点击范围(新用户)</t>
+  </si>
+  <si>
+    <t>config005</t>
+  </si>
+  <si>
+    <t>控制native插屏点击范围(老用户)</t>
+  </si>
+  <si>
+    <t>interstitialCD</t>
+  </si>
+  <si>
+    <t>插屏播放间隔(调用展示插屏的次数)(最好配置为0,间隔交由游戏控制)</t>
+  </si>
+  <si>
+    <t>interstitialTimeCD</t>
+  </si>
+  <si>
+    <t>插屏播放时间间隔(最好配置为0,间隔交由游戏控制)</t>
+  </si>
+  <si>
+    <t>bannerTimeCD</t>
+  </si>
+  <si>
+    <t>banner展示多久之后更换一条</t>
+  </si>
+  <si>
+    <t>nativeMenuTimeCD</t>
+  </si>
+  <si>
+    <t>menu多久展示一次</t>
+  </si>
+  <si>
+    <t>InterstitialCoverTime</t>
+  </si>
+  <si>
+    <t>插屏前的遮罩持续时间</t>
+  </si>
+  <si>
+    <t>config040</t>
+  </si>
+  <si>
+    <t>prediction重复打点开关</t>
+  </si>
+  <si>
+    <t>config041</t>
+  </si>
+  <si>
+    <t>prediction打点事件名列表,";"分割</t>
+  </si>
+  <si>
+    <t>config042</t>
+  </si>
+  <si>
+    <t>插屏前的遮罩跳转广告的时间</t>
+  </si>
+  <si>
+    <t>config043</t>
+  </si>
+  <si>
+    <t>版本更新弹窗配置</t>
+  </si>
+  <si>
+    <t>config044</t>
+  </si>
+  <si>
+    <t>控制是否打unity价格回传的点</t>
+  </si>
+  <si>
+    <t>config045</t>
+  </si>
+  <si>
+    <t>控制ecpm需要开几次方</t>
+  </si>
+  <si>
+    <t>config046</t>
+  </si>
+  <si>
+    <t>控制ecpm开方后乘以的倍数</t>
+  </si>
+  <si>
+    <t>config047</t>
+  </si>
+  <si>
+    <t>控制显示弹窗的类型,"1"是显示小弹窗;"2"是显示全屏弹窗;"3"没有年龄选择框,只有确认按钮;"4"没有年龄选择框,两个按钮,文案包括"OK";"5"没有年龄选择框,两个按钮,文案包括"Accept"</t>
+  </si>
+  <si>
+    <t>config048</t>
+  </si>
+  <si>
+    <t>开启GDPR弹窗,"true"显示弹窗,"false"是不开启弹窗</t>
+  </si>
+  <si>
+    <t>config050</t>
+  </si>
+  <si>
+    <t>服务条款说明地址</t>
+  </si>
+  <si>
+    <t>config051</t>
+  </si>
+  <si>
+    <t>gdpr隐私说明地址</t>
+  </si>
+  <si>
+    <t>config052</t>
+  </si>
+  <si>
+    <t>用户价值打点配置,";"分割,例"1;5;15"则第1,5,15在同一天价值分别达到1,5,15时打一个点</t>
+  </si>
+  <si>
+    <t>shopUrl</t>
+  </si>
+  <si>
+    <t>商店地址</t>
+  </si>
+  <si>
+    <t>config060</t>
+  </si>
+  <si>
+    <t>插屏加载成功是否加载更多广告,"0"不加载更多,"1"加载更多</t>
+  </si>
+  <si>
+    <t>config061</t>
+  </si>
+  <si>
+    <t>激励视频加载成功是否加载更多广告,"0"不加载更多,"1"加载更多</t>
+  </si>
+  <si>
+    <t>nativeRefreshInterval</t>
+  </si>
+  <si>
+    <t>menu和ingame刷新展示N次刷新</t>
   </si>
   <si>
     <t>description</t>
@@ -733,14 +721,15 @@
   <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:R1048576"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
   <cols>
     <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="106.5546875" customWidth="1"/>
+    <col min="4" max="4" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -751,479 +740,480 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1">
-        <v>5</v>
-      </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1">
-        <v>30</v>
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1">
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1">
         <v>-1</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1">
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1">
-        <v>3</v>
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1">
         <v>1800</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1800</v>
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1">
         <v>1800</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B13" s="1">
         <v>1800</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1800</v>
+        <v>34</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="1">
-        <v>1800</v>
+        <v>36</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B16" s="1">
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B17" s="1">
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B18" s="1">
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B19" s="1">
         <v>1800</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="1">
-        <v>1</v>
+        <v>46</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B21" s="1">
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B22" s="1">
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B23" s="1">
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B24" s="1">
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B25" s="1">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B26" s="1">
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="1">
-        <v>30</v>
+        <v>60</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B29" s="1">
         <v>1.5</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B32" s="1">
         <v>0.5</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B33" s="1">
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C39" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C40" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C42" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:C45" xr:uid="{BCD473F4-CF22-FB43-9896-41A9BBE7D56F}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/defineFiles/常规常量.xlsx
+++ b/defineFiles/常规常量.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hjl/Projects/NewAdUploadTool/defineFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yfc/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8EFC3D-E948-4145-9729-01228C8E816C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8186F6-3F00-B240-93C2-AAF6D5CFBB3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{FCE03592-A999-2447-A328-3E29A4239458}"/>
+    <workbookView xWindow="6560" yWindow="3860" windowWidth="26860" windowHeight="15440" xr2:uid="{FCE03592-A999-2447-A328-3E29A4239458}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$C$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$D$45</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,6 +38,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>false</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -333,17 +337,13 @@
   </si>
   <si>
     <t>menu和ingame刷新展示N次刷新</t>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="16"/>
       <color theme="1"/>
@@ -363,13 +363,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="SimSun"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -394,14 +387,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -721,15 +711,14 @@
   <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
   <cols>
     <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="106.5546875" customWidth="1"/>
-    <col min="4" max="4" width="37.6640625" customWidth="1"/>
+    <col min="3" max="3" width="44.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -739,481 +728,481 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>98</v>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1">
         <v>-1</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1">
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1">
         <v>1800</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" s="1">
         <v>1800</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" s="1">
         <v>1800</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B16" s="1">
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" s="1">
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B18" s="1">
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B19" s="1">
         <v>1800</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B21" s="1">
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B22" s="1">
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B23" s="1">
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B24" s="1">
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B25" s="1">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B26" s="1">
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B29" s="1">
         <v>1.5</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B32" s="1">
         <v>0.5</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B33" s="1">
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C40" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C42" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:C45" xr:uid="{BCD473F4-CF22-FB43-9896-41A9BBE7D56F}"/>
+  <autoFilter ref="A2:D45" xr:uid="{BCD473F4-CF22-FB43-9896-41A9BBE7D56F}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
